--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>383620.217751072</v>
+        <v>409562.2140120656</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216109</v>
+        <v>16597726.15245799</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484433</v>
+        <v>492028.9342484443</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8053698.288749738</v>
+        <v>8091577.079360506</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -668,16 +668,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>286.2721000371769</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>156.198318869094</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>80.88795829082572</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>243.8398845373353</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>409.9755676343408</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>327.2879775827834</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157.1083136370882</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1069,7 +1069,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>54.66258501924847</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45.50790004565232</v>
+        <v>85.34364212566814</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1145,13 +1145,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>17.61708929325471</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>101.043075354596</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>229.7552611298644</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>24.34318456170493</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>5.990622819019141</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>18.22772027659471</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>90.97964783089149</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170524</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>381.4061090983701</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1856,13 +1856,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>129.7853418074807</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2014,10 +2014,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170479</v>
+        <v>54.53682144529076</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>165.7499153537897</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2138,7 +2138,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>90.97964783089149</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2488,7 +2488,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170492</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907117</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>43.77283765622082</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2962,13 +2962,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,10 +3010,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>205.875975198205</v>
       </c>
       <c r="X31" t="n">
-        <v>103.3456594571958</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3250,7 +3250,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>13.51446909089693</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3329,7 +3329,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864818</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3427,7 +3427,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3487,7 +3487,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>107.8580766794769</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3673,10 +3673,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170499</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>122.9742767430572</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3904,7 +3904,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225746</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>65.07405371603588</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>15.57230972412448</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4198,7 +4198,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.6402219259112</v>
+        <v>1378.535529293604</v>
       </c>
       <c r="C2" t="n">
-        <v>408.5381531497385</v>
+        <v>940.3930564770272</v>
       </c>
       <c r="D2" t="n">
-        <v>376.6687723645871</v>
+        <v>908.5236756918758</v>
       </c>
       <c r="E2" t="n">
-        <v>346.9344315632864</v>
+        <v>878.7893348905751</v>
       </c>
       <c r="F2" t="n">
-        <v>323.1074060128981</v>
+        <v>450.9219052997828</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304671</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304671</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>484.3619720031046</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797684</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756279</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693173</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693173</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693173</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693173</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1966.856899104206</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1809.080819438454</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.939792410819</v>
+        <v>1400.794695738108</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397424</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064432</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.341879988165</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>955.6037336452931</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>789.7257408468158</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>619.967737097553</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>443.2606830593092</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148766</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>410.4454242860122</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>828.6553060539733</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>1235.38760622724</v>
+        <v>1519.99530944888</v>
       </c>
       <c r="O4" t="n">
-        <v>1235.38760622724</v>
+        <v>1939.664558674662</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2287.171452645003</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214708</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.705037512704</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2274.705037512704</v>
       </c>
       <c r="U4" t="n">
-        <v>1024.341879988165</v>
+        <v>1996.272036765809</v>
       </c>
       <c r="V4" t="n">
-        <v>1024.341879988165</v>
+        <v>1709.31652863624</v>
       </c>
       <c r="W4" t="n">
-        <v>1024.341879988165</v>
+        <v>1437.290124222531</v>
       </c>
       <c r="X4" t="n">
-        <v>1024.341879988165</v>
+        <v>1437.290124222531</v>
       </c>
       <c r="Y4" t="n">
-        <v>1024.341879988165</v>
+        <v>1209.87045353664</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>577.3912258549058</v>
       </c>
       <c r="C5" t="n">
-        <v>418.0989517035836</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O5" t="n">
-        <v>1277.130531135514</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1818.936547960124</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1399.794084539435</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>991.5079608390885</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>973.0996549038641</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>800.5379433870891</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>634.6599505886118</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>464.9019468393491</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>288.1948928011053</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>2124.33055796836</v>
       </c>
       <c r="V7" t="n">
-        <v>1131.794921203953</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1131.794921203953</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1131.794921203953</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1131.794921203953</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1772.466367533142</v>
+        <v>2480.040423909638</v>
       </c>
       <c r="C8" t="n">
-        <v>1334.323894716565</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>898.4141098910095</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>464.6393650493047</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851242</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851242</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851242</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851242</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114303</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105216</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105216</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105216</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105216</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>927.0793242105216</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873474</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172565</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925621</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925621</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925621</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925621</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925621</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377059</v>
+        <v>2585.593902066702</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996773</v>
+        <v>2570.491842686417</v>
       </c>
       <c r="Y8" t="n">
-        <v>1818.433943336831</v>
+        <v>2566.246123026474</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498052</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864475</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330008</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599545</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761161</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764229995</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851242</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897002</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851824</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842736</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.78621754389</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.78621754389</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.78621754389</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.78621754389</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.78621754389</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937321</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385704</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716274</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114677</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503476</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295684</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1115.830096070394</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>943.2683845536188</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>777.3903917551415</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>607.6323880058787</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676349</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934626</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838371</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851242</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851242</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>311.530390029648</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>729.740271797609</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1184.7929730967</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1627.051776254345</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1838.596772925621</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925621</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925621</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951630993</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.93758292899</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.058136507445</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1133.62513576055</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1133.62513576055</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1115.830096070394</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1115.830096070394</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1115.830096070394</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2336.308741984731</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>1898.166269168154</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1462.256484342599</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1028.481739500894</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>600.6143099101018</v>
       </c>
       <c r="G11" t="n">
-        <v>386.282920610759</v>
+        <v>199.2164785333653</v>
       </c>
       <c r="H11" t="n">
-        <v>97.1527660539752</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>931.0862686392932</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2006.146234892153</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693464</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.99017326377</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097166</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928799</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245816</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.892354179642</v>
+        <v>3994.892354179641</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590676</v>
+        <v>3590.036899590675</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3170.894436169986</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2762.608312469639</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.2298140987273</v>
+        <v>1087.134188067672</v>
       </c>
       <c r="C13" t="n">
-        <v>633.6681025819522</v>
+        <v>914.5724765508971</v>
       </c>
       <c r="D13" t="n">
-        <v>467.7901097834749</v>
+        <v>748.6944837524197</v>
       </c>
       <c r="E13" t="n">
-        <v>298.0321060342122</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F13" t="n">
-        <v>121.3250519959684</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G13" t="n">
-        <v>121.3250519959684</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H13" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I13" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
         <v>183.3156618458051</v>
@@ -5233,16 +5233,16 @@
         <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583902</v>
+        <v>2023.790636552847</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170194</v>
+        <v>1751.764232139139</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503606</v>
+        <v>1506.372477472551</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177145</v>
+        <v>1278.952806786659</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168568</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.514395351991</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526436</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E14" t="n">
-        <v>944.829865684731</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>516.9624360939388</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G14" t="n">
-        <v>115.5646047172027</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
         <v>97.15276605397518</v>
@@ -5279,22 +5279,22 @@
         <v>96.73597668111519</v>
       </c>
       <c r="K14" t="n">
-        <v>498.7803825855964</v>
+        <v>931.0862686392932</v>
       </c>
       <c r="L14" t="n">
-        <v>1573.840348838456</v>
+        <v>1356.079523257016</v>
       </c>
       <c r="M14" t="n">
-        <v>2730.888184049007</v>
+        <v>1356.079523257016</v>
       </c>
       <c r="N14" t="n">
-        <v>3856.619167485454</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O14" t="n">
-        <v>4836.798834055759</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P14" t="n">
-        <v>4836.798834055759</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q14" t="n">
         <v>4836.798834055759</v>
@@ -5312,16 +5312,16 @@
         <v>4273.857430429652</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363478</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774512</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653476</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077851</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077851</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077851</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987278</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6681025819528</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D16" t="n">
-        <v>467.7901097834755</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E16" t="n">
-        <v>298.0321060342127</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F16" t="n">
-        <v>121.325051995969</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
         <v>96.73597668111519</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111577</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111577</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458056</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169412</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849023</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
         <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.02666852346</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O16" t="n">
         <v>2197.695917749241</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881912</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583903</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503607</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.048432817715</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168569</v>
+        <v>2472.724095295529</v>
       </c>
       <c r="C17" t="n">
-        <v>1814.514395351993</v>
+        <v>2034.581622478952</v>
       </c>
       <c r="D17" t="n">
-        <v>1378.604610526437</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>944.8298656847323</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>516.9624360939401</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G17" t="n">
-        <v>385.866131237899</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111523</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5528,37 +5528,37 @@
         <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510714</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.14598334411</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302705</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055761</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239597</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112637</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429654</v>
+        <v>4493.924657556612</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.24048036348</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774513</v>
+        <v>3726.452252901472</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353824</v>
+        <v>3307.309789480783</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653477</v>
+        <v>2899.023665780436</v>
       </c>
     </row>
     <row r="18">
@@ -5574,40 +5574,40 @@
         <v>496.4512605090503</v>
       </c>
       <c r="D18" t="n">
-        <v>401.3609716556036</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E18" t="n">
-        <v>307.2405569825573</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F18" t="n">
-        <v>223.8567185987189</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G18" t="n">
-        <v>138.4716288649028</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.2298140987275</v>
+        <v>976.6306115230861</v>
       </c>
       <c r="C19" t="n">
-        <v>633.6681025819524</v>
+        <v>804.0689000063112</v>
       </c>
       <c r="D19" t="n">
-        <v>467.7901097834751</v>
+        <v>638.190907207834</v>
       </c>
       <c r="E19" t="n">
-        <v>298.0321060342123</v>
+        <v>468.4329034585712</v>
       </c>
       <c r="F19" t="n">
-        <v>121.3250519959686</v>
+        <v>291.7258494203274</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111523</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111523</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
-        <v>458.0741164169407</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
         <v>876.2839981849017</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503606</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177147</v>
+        <v>976.6306115230861</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C20" t="n">
         <v>2085.232711245548</v>
@@ -5741,13 +5741,13 @@
         <v>787.680751987495</v>
       </c>
       <c r="G20" t="n">
-        <v>386.282920610759</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>97.1527660539752</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5759,43 +5759,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2481.810506693464</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2481.810506693464</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3461.99017326377</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4290.300048097166</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
-        <v>4836.79883405576</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239597</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112636</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429653</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.674754547033</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="21">
@@ -5823,13 +5823,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
         <v>1102.064021433509</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580464</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412713</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D22" t="n">
         <v>608.792309442794</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935313</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552876</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111577</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458056</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
-        <v>458.0741164169412</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849023</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
         <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
-        <v>1778.02666852346</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O22" t="n">
         <v>2197.695917749241</v>
@@ -5953,7 +5953,7 @@
         <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477034</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883913</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716163</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1612.575493976557</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2769.623329187108</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>3895.354312623555</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3895.354312623555</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903952</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736202</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D28" t="n">
-        <v>754.219347342084</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461862</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,37 +6449,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2837.977298779171</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>875.8255515988634</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>703.2638400820883</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6658,13 +6658,13 @@
         <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,25 +6701,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2627364873778</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1632.322702740237</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>1632.322702740237</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176684</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.756877347711</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309359</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6977,7 +6977,7 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136697</v>
@@ -7017,22 +7017,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.801834709351</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962456</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1346.019348263738</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1118.599677577846</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,52 +7172,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>811.7546776883921</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>639.1929661716171</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>473.3149733731397</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>303.556969623877</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>126.8499155856331</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2594.704009018975</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2316.271008272081</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.315500142511</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7397,10 +7397,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7409,52 +7409,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4943.887948785923</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7467,16 +7467,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
         <v>143.9964924545671</v>
@@ -7491,22 +7491,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>838.9992856166234</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>673.121292818146</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799022</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961044</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354693</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745663</v>
       </c>
       <c r="M43" t="n">
         <v>1341.292728955479</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1948.217445618573</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1676.191041204865</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1203.379615852386</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7646,52 +7646,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
         <v>1648.327823655249</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477109</v>
+        <v>1057.146432354979</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309358</v>
+        <v>884.5847208382044</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324585</v>
+        <v>718.7067280397271</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831958</v>
+        <v>548.9487242904644</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>372.2416702522206</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>206.6503952780482</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7831,25 +7831,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1248.965051073967</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877334</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>40.34758805803858</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,13 +8058,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.47818213854873</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,19 +8140,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>234.1981173878723</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>296.5687363523682</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,19 +8377,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314054</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2128107706585</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314052</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314053</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662795</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314054</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,19 +8617,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314052</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>213.6818148194714</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8696,10 +8696,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>480.4689614154649</v>
       </c>
       <c r="N11" t="n">
-        <v>40.81776196807414</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,13 +8927,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>406.105460509577</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>429.2861157754775</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -8942,10 +8942,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>161.152732437109</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>860.0355415814588</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>40.81776196807414</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9887,16 +9887,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>507.1059092967421</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10349,13 +10349,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>459.5978749662608</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10364,10 +10364,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>508.6956131767474</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>185.1957776566198</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>185.195777656618</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>114.1599680048243</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.0953302292547</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>268.0111327346212</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>268.0111327346202</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>50.14457787892985</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>267.598511255488</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627258</v>
+        <v>109.3985407791399</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>268.0111327346212</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>268.0111327346202</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>63.43016517136635</v>
       </c>
       <c r="X31" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>135.0797604404447</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,10 +25597,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>219.011899332238</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>122.9308428424047</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>680169.6634405972</v>
+        <v>691832.7816226219</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>680169.6634405972</v>
+        <v>695135.465909798</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>682345.0291788378</v>
+        <v>695135.465909798</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>683996.8896828892</v>
+        <v>683996.8896828891</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>683996.8896828891</v>
+        <v>683996.8896828892</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>683996.8896828893</v>
+        <v>683996.8896828891</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>683996.8896828892</v>
+        <v>683996.8896828891</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712862.3400430829</v>
+        <v>712862.3400430831</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>712862.3400430829</v>
+        <v>712862.3400430831</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712862.3400430831</v>
+        <v>712862.3400430832</v>
       </c>
     </row>
     <row r="16">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>294881.0259397246</v>
+        <v>294881.0259397247</v>
       </c>
       <c r="C2" t="n">
-        <v>294881.0259397246</v>
+        <v>294881.0259397247</v>
       </c>
       <c r="D2" t="n">
-        <v>294881.0259397248</v>
+        <v>294881.0259397247</v>
       </c>
       <c r="E2" t="n">
-        <v>278038.143884422</v>
+        <v>278038.1438844221</v>
       </c>
       <c r="F2" t="n">
         <v>278038.143884422</v>
       </c>
       <c r="G2" t="n">
-        <v>278038.1438844221</v>
+        <v>278038.143884422</v>
       </c>
       <c r="H2" t="n">
-        <v>278038.1438844221</v>
+        <v>278038.143884422</v>
       </c>
       <c r="I2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="J2" t="n">
         <v>289771.6712755437</v>
@@ -26341,13 +26341,13 @@
         <v>289771.6712755437</v>
       </c>
       <c r="L2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="M2" t="n">
         <v>289771.6712755437</v>
       </c>
       <c r="N2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="O2" t="n">
         <v>289771.6712755437</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039028</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390679</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200142</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520287</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.7156328394</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856132</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784525</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088508878</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104687</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.9728418667</v>
+        <v>174244.3817256397</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595585</v>
       </c>
       <c r="D4" t="n">
-        <v>200045.3005001115</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>78141.89423804612</v>
+        <v>78141.89423804611</v>
       </c>
       <c r="F4" t="n">
         <v>78141.89423804612</v>
       </c>
       <c r="G4" t="n">
-        <v>78141.89423804614</v>
+        <v>78141.89423804609</v>
       </c>
       <c r="H4" t="n">
-        <v>78141.89423804614</v>
+        <v>78141.89423804609</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.5714690428</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
         <v>81439.57146904283</v>
@@ -26448,16 +26448,16 @@
         <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="O4" t="n">
-        <v>81439.5714690428</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="P4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814189</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846944</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
         <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764756</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
+        <v>77718.2386057925</v>
+      </c>
+      <c r="O5" t="n">
         <v>77718.23860579252</v>
       </c>
-      <c r="O5" t="n">
-        <v>77718.23860579249</v>
-      </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-112696.0356990744</v>
+        <v>-156024.7485479596</v>
       </c>
       <c r="C6" t="n">
-        <v>29495.26496063557</v>
+        <v>38064.86874450174</v>
       </c>
       <c r="D6" t="n">
-        <v>22279.64781914238</v>
+        <v>55405.41311840857</v>
       </c>
       <c r="E6" t="n">
-        <v>-97422.3863833003</v>
+        <v>-35434.72639618284</v>
       </c>
       <c r="F6" t="n">
-        <v>126376.9073687284</v>
+        <v>126300.3488139315</v>
       </c>
       <c r="G6" t="n">
-        <v>126376.9073687284</v>
+        <v>126300.3488139315</v>
       </c>
       <c r="H6" t="n">
-        <v>126376.9073687284</v>
+        <v>126300.3488139315</v>
       </c>
       <c r="I6" t="n">
-        <v>112249.1455678691</v>
+        <v>112225.9212284862</v>
       </c>
       <c r="J6" t="n">
-        <v>19599.39585571823</v>
+        <v>-30017.19262428745</v>
       </c>
       <c r="K6" t="n">
-        <v>130613.8612007084</v>
+        <v>116776.6282934804</v>
       </c>
       <c r="L6" t="n">
-        <v>121666.2501121996</v>
+        <v>130590.6368613258</v>
       </c>
       <c r="M6" t="n">
-        <v>-56177.12540976034</v>
+        <v>-4399.307751677658</v>
       </c>
       <c r="N6" t="n">
-        <v>130613.8612007085</v>
+        <v>130590.6368613258</v>
       </c>
       <c r="O6" t="n">
-        <v>130613.8612007085</v>
+        <v>130590.6368613257</v>
       </c>
       <c r="P6" t="n">
-        <v>130613.8612007084</v>
+        <v>130590.6368613257</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314053</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052303</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130099</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825348</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080524</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052303</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130099</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825345</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052303</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130099</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825348</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,16 +27388,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>111.1117530257919</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27439,10 +27439,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>258.7527199173884</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>109.0124742409715</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>31.8087862020904</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>12.06100714571784</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>104.2627093945165</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27673,16 +27673,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.79211889470906</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>229.4233680290254</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>376.5286747344064</v>
+        <v>336.6929326543906</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>251.6890510763167</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877334</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>40.34758805803858</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34775,16 +34775,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.47818213854873</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>234.1981173878723</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>296.5687363523682</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314054</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2128107706585</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314052</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314053</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662795</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314054</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314052</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>213.6818148194714</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35416,10 +35416,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>480.4689614154649</v>
       </c>
       <c r="N11" t="n">
-        <v>40.81776196807414</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35647,13 +35647,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>406.105460509577</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>429.2861157754775</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35662,10 +35662,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>161.152732437109</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35896,16 +35896,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>860.0355415814588</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645587</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>40.81776196807414</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>507.1059092967421</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -37069,13 +37069,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>459.5978749662608</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37084,10 +37084,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>508.6956131767474</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908053</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960968</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
